--- a/data/excel_files_reduced/test_excel_7_reduced.xlsx
+++ b/data/excel_files_reduced/test_excel_7_reduced.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chrislittle/GitHub/speedsheet/mvp/data/excel_files_clean/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chrislittle/GitHub/speedsheet/excel-2-python/data/excel_files_reduced/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F94B97D1-DD1F-ED4F-8095-D2B0461523B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BF6DC4C-4904-B748-9572-D83E782743FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19680" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="56">
   <si>
     <t>App</t>
   </si>
@@ -194,6 +194,36 @@
   </si>
   <si>
     <t>Feb</t>
+  </si>
+  <si>
+    <t>Mar</t>
+  </si>
+  <si>
+    <t>Apr</t>
+  </si>
+  <si>
+    <t>May</t>
+  </si>
+  <si>
+    <t>Jun</t>
+  </si>
+  <si>
+    <t>Jul</t>
+  </si>
+  <si>
+    <t>Aug</t>
+  </si>
+  <si>
+    <t>Sep</t>
+  </si>
+  <si>
+    <t>Oct</t>
+  </si>
+  <si>
+    <t>Nov</t>
+  </si>
+  <si>
+    <t>Dec</t>
   </si>
 </sst>
 </file>
@@ -559,8 +589,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AA3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N2" sqref="N2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -852,10 +882,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82A880F7-B537-4559-A126-8DCEC7EB85EC}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:B13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -881,8 +911,87 @@
         <v>45</v>
       </c>
       <c r="B3">
-        <f>B2+1</f>
         <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>49</v>
+      </c>
+      <c r="B7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>50</v>
+      </c>
+      <c r="B8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>51</v>
+      </c>
+      <c r="B9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>52</v>
+      </c>
+      <c r="B10">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>53</v>
+      </c>
+      <c r="B11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>54</v>
+      </c>
+      <c r="B12">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>55</v>
+      </c>
+      <c r="B13">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/data/excel_files_reduced/test_excel_7_reduced.xlsx
+++ b/data/excel_files_reduced/test_excel_7_reduced.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chrislittle/GitHub/speedsheet/excel-2-python/data/excel_files_reduced/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BF6DC4C-4904-B748-9572-D83E782743FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4DA46C6-9F63-9844-B738-5846A9DE1863}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19680" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,30 +33,8 @@
 </workbook>
 </file>
 
-<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
-  <metadataTypes count="1">
-    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
-  </metadataTypes>
-  <futureMetadata name="XLDAPR" count="1">
-    <bk>
-      <extLst>
-        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
-          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
-        </ext>
-      </extLst>
-    </bk>
-  </futureMetadata>
-  <cellMetadata count="1">
-    <bk>
-      <rc t="1" v="0"/>
-    </bk>
-  </cellMetadata>
-</metadata>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="55">
   <si>
     <t>App</t>
   </si>
@@ -161,9 +139,6 @@
   </si>
   <si>
     <t>2.0.0</t>
-  </si>
-  <si>
-    <t>Sorted List</t>
   </si>
   <si>
     <t>Round up Decimal</t>
@@ -587,19 +562,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA3"/>
+  <dimension ref="A1:Z3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="T1" sqref="T1:T1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="17" max="17" width="10.83203125" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="10.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -673,16 +648,13 @@
         <v>39</v>
       </c>
       <c r="Y1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z1" t="s">
         <v>40</v>
       </c>
-      <c r="Z1" t="s">
-        <v>42</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>19</v>
       </c>
@@ -746,40 +718,36 @@
         <f>IF(OR(A2&gt;0,B2&gt;0),"Acceptable","Check")</f>
         <v>Acceptable</v>
       </c>
-      <c r="T2" cm="1">
-        <f t="array" ref="T2:T3">_xlfn._xlws.SORT(C2:C3)</f>
-        <v>3.9</v>
-      </c>
-      <c r="U2">
+      <c r="T2">
         <f>ROUNDUP(C2,0)</f>
         <v>5</v>
       </c>
-      <c r="V2">
+      <c r="U2">
         <f>ROUNDDOWN(C2,0)</f>
         <v>4</v>
       </c>
-      <c r="W2">
+      <c r="V2">
         <f>RIGHT(K2,2)+2000</f>
         <v>2018</v>
       </c>
-      <c r="X2" t="str">
+      <c r="W2" t="str">
         <f>INDEX(_xlfn.TEXTSPLIT(K2,"-"),1,2)</f>
         <v>Jan</v>
       </c>
-      <c r="Y2" t="str">
+      <c r="X2" t="str">
         <f>INDEX(_xlfn.TEXTSPLIT(K2,"-"),1,1)</f>
         <v>7</v>
       </c>
+      <c r="Y2">
+        <f>INDEX(months!B:B,MATCH(Sheet1!W2,months!A:A,0))</f>
+        <v>1</v>
+      </c>
       <c r="Z2">
-        <f>INDEX(months!B:B,MATCH(Sheet1!X2,months!A:A,0))</f>
-        <v>1</v>
-      </c>
-      <c r="AA2">
-        <f>DATE(W2,Z2,Y2)</f>
+        <f>DATE(V2,Y2,X2)</f>
         <v>43107</v>
       </c>
     </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>29</v>
       </c>
@@ -844,34 +812,31 @@
         <v>Acceptable</v>
       </c>
       <c r="T3">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="U3">
         <f>ROUNDUP(C3,0)</f>
         <v>4</v>
       </c>
-      <c r="V3">
+      <c r="U3">
         <f>ROUNDDOWN(C3,0)</f>
         <v>3</v>
       </c>
-      <c r="W3">
+      <c r="V3">
         <f>RIGHT(K3,2)+2000</f>
         <v>2018</v>
       </c>
-      <c r="X3" t="str">
+      <c r="W3" t="str">
         <f>INDEX(_xlfn.TEXTSPLIT(K3,"-"),1,2)</f>
         <v>Jan</v>
       </c>
-      <c r="Y3" t="str">
+      <c r="X3" t="str">
         <f>INDEX(_xlfn.TEXTSPLIT(K3,"-"),1,1)</f>
         <v>15</v>
       </c>
+      <c r="Y3">
+        <f>INDEX(months!B:B,MATCH(Sheet1!W3,months!A:A,0))</f>
+        <v>1</v>
+      </c>
       <c r="Z3">
-        <f>INDEX(months!B:B,MATCH(Sheet1!X3,months!A:A,0))</f>
-        <v>1</v>
-      </c>
-      <c r="AA3">
-        <f t="shared" ref="AA3" si="1">DATE(W3,Z3,Y3)</f>
+        <f t="shared" ref="Z3" si="1">DATE(V3,Y3,X3)</f>
         <v>43115</v>
       </c>
     </row>
@@ -884,7 +849,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82A880F7-B537-4559-A126-8DCEC7EB85EC}">
   <dimension ref="A1:B13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3:B13"/>
     </sheetView>
   </sheetViews>
@@ -892,15 +857,15 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -908,7 +873,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -916,7 +881,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B4">
         <v>3</v>
@@ -924,7 +889,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B5">
         <v>4</v>
@@ -932,7 +897,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B6">
         <v>5</v>
@@ -940,7 +905,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B7">
         <v>6</v>
@@ -948,7 +913,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B8">
         <v>7</v>
@@ -956,7 +921,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B9">
         <v>8</v>
@@ -964,7 +929,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B10">
         <v>9</v>
@@ -972,7 +937,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B11">
         <v>10</v>
@@ -980,7 +945,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B12">
         <v>11</v>
@@ -988,7 +953,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B13">
         <v>12</v>

--- a/data/excel_files_reduced/test_excel_7_reduced.xlsx
+++ b/data/excel_files_reduced/test_excel_7_reduced.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chrislittle/GitHub/speedsheet/excel-2-python/data/excel_files_reduced/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4DA46C6-9F63-9844-B738-5846A9DE1863}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4DD140D-D93D-CC4B-A81F-0CA395AFF727}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21100" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="45">
   <si>
     <t>App</t>
   </si>
@@ -162,43 +162,13 @@
     <t>Month Number</t>
   </si>
   <si>
+    <t>Jan</t>
+  </si>
+  <si>
+    <t>Feb</t>
+  </si>
+  <si>
     <t>Number</t>
-  </si>
-  <si>
-    <t>Jan</t>
-  </si>
-  <si>
-    <t>Feb</t>
-  </si>
-  <si>
-    <t>Mar</t>
-  </si>
-  <si>
-    <t>Apr</t>
-  </si>
-  <si>
-    <t>May</t>
-  </si>
-  <si>
-    <t>Jun</t>
-  </si>
-  <si>
-    <t>Jul</t>
-  </si>
-  <si>
-    <t>Aug</t>
-  </si>
-  <si>
-    <t>Sep</t>
-  </si>
-  <si>
-    <t>Oct</t>
-  </si>
-  <si>
-    <t>Nov</t>
-  </si>
-  <si>
-    <t>Dec</t>
   </si>
 </sst>
 </file>
@@ -255,11 +225,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -564,8 +536,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T1" sqref="T1:T1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Y2" sqref="Y2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -842,124 +814,87 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82A880F7-B537-4559-A126-8DCEC7EB85EC}">
-  <dimension ref="A1:B13"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:B13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O12" sqref="O12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>38</v>
       </c>
       <c r="B1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="B2" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>44</v>
-      </c>
-      <c r="B3">
+      <c r="B3" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>45</v>
-      </c>
-      <c r="B4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>46</v>
-      </c>
-      <c r="B5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>47</v>
-      </c>
-      <c r="B6">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>48</v>
-      </c>
-      <c r="B7">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>49</v>
-      </c>
-      <c r="B8">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>50</v>
-      </c>
-      <c r="B9">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>51</v>
-      </c>
-      <c r="B10">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>52</v>
-      </c>
-      <c r="B11">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>53</v>
-      </c>
-      <c r="B12">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>54</v>
-      </c>
-      <c r="B13">
-        <v>12</v>
-      </c>
+      <c r="D3" s="3"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="3"/>
+      <c r="B4" s="2"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="3"/>
+      <c r="B5" s="2"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="3"/>
+      <c r="B6" s="2"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="3"/>
+      <c r="B7" s="2"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="3"/>
+      <c r="B8" s="2"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="3"/>
+      <c r="B9" s="2"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="3"/>
+      <c r="B10" s="2"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" s="3"/>
+      <c r="B11" s="2"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" s="3"/>
+      <c r="B12" s="2"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" s="3"/>
+      <c r="B13" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/data/excel_files_reduced/test_excel_7_reduced.xlsx
+++ b/data/excel_files_reduced/test_excel_7_reduced.xlsx
@@ -1,20 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10414"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chrislittle/GitHub/speedsheet/excel-2-python/data/excel_files_reduced/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4DD140D-D93D-CC4B-A81F-0CA395AFF727}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB8DD3EA-EB9E-0F49-9933-E466BBAF0D07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21100" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="months" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="38">
   <si>
     <t>App</t>
   </si>
@@ -148,27 +147,6 @@
   </si>
   <si>
     <t>Year</t>
-  </si>
-  <si>
-    <t>Month</t>
-  </si>
-  <si>
-    <t>Day</t>
-  </si>
-  <si>
-    <t>Date</t>
-  </si>
-  <si>
-    <t>Month Number</t>
-  </si>
-  <si>
-    <t>Jan</t>
-  </si>
-  <si>
-    <t>Feb</t>
-  </si>
-  <si>
-    <t>Number</t>
   </si>
 </sst>
 </file>
@@ -225,13 +203,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -534,19 +510,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z3"/>
+  <dimension ref="A1:V3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="Y2" sqref="Y2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="AB11" sqref="AB11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="17" max="17" width="10.83203125" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="10.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -613,20 +588,8 @@
       <c r="V1" t="s">
         <v>37</v>
       </c>
-      <c r="W1" t="s">
-        <v>38</v>
-      </c>
-      <c r="X1" t="s">
-        <v>39</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>41</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>40</v>
-      </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>19</v>
       </c>
@@ -702,24 +665,8 @@
         <f>RIGHT(K2,2)+2000</f>
         <v>2018</v>
       </c>
-      <c r="W2" t="str">
-        <f>INDEX(_xlfn.TEXTSPLIT(K2,"-"),1,2)</f>
-        <v>Jan</v>
-      </c>
-      <c r="X2" t="str">
-        <f>INDEX(_xlfn.TEXTSPLIT(K2,"-"),1,1)</f>
-        <v>7</v>
-      </c>
-      <c r="Y2">
-        <f>INDEX(months!B:B,MATCH(Sheet1!W2,months!A:A,0))</f>
-        <v>1</v>
-      </c>
-      <c r="Z2">
-        <f>DATE(V2,Y2,X2)</f>
-        <v>43107</v>
-      </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>29</v>
       </c>
@@ -794,107 +741,10 @@
       <c r="V3">
         <f>RIGHT(K3,2)+2000</f>
         <v>2018</v>
-      </c>
-      <c r="W3" t="str">
-        <f>INDEX(_xlfn.TEXTSPLIT(K3,"-"),1,2)</f>
-        <v>Jan</v>
-      </c>
-      <c r="X3" t="str">
-        <f>INDEX(_xlfn.TEXTSPLIT(K3,"-"),1,1)</f>
-        <v>15</v>
-      </c>
-      <c r="Y3">
-        <f>INDEX(months!B:B,MATCH(Sheet1!W3,months!A:A,0))</f>
-        <v>1</v>
-      </c>
-      <c r="Z3">
-        <f t="shared" ref="Z3" si="1">DATE(V3,Y3,X3)</f>
-        <v>43115</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82A880F7-B537-4559-A126-8DCEC7EB85EC}">
-  <dimension ref="A1:D13"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O12" sqref="O12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="B2" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="B3" s="2">
-        <v>2</v>
-      </c>
-      <c r="D3" s="3"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="3"/>
-      <c r="B4" s="2"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="3"/>
-      <c r="B5" s="2"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="3"/>
-      <c r="B6" s="2"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="3"/>
-      <c r="B7" s="2"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="3"/>
-      <c r="B8" s="2"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="3"/>
-      <c r="B9" s="2"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="3"/>
-      <c r="B10" s="2"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="3"/>
-      <c r="B11" s="2"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" s="3"/>
-      <c r="B12" s="2"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" s="3"/>
-      <c r="B13" s="2"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
-</worksheet>
 </file>